--- a/database/industries/chemical/sharum/cost/yearly.xlsx
+++ b/database/industries/chemical/sharum/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\sharum\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9518376-3CBC-45C6-A830-CDDD6DB05439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +360,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -371,7 +372,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -418,6 +419,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -453,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,17 +639,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -624,7 +659,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +671,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,7 +683,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -658,7 +693,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -670,7 +705,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -682,7 +717,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -692,7 +727,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -714,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -724,95 +759,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>281130</v>
+        <v>457086</v>
       </c>
       <c r="F10" s="9">
-        <v>457086</v>
+        <v>539583</v>
       </c>
       <c r="G10" s="9">
-        <v>539583</v>
+        <v>1621403</v>
       </c>
       <c r="H10" s="9">
-        <v>1621403</v>
+        <v>4536276</v>
       </c>
       <c r="I10" s="9">
-        <v>4536276</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7254705</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>24271</v>
+        <v>37591</v>
       </c>
       <c r="F11" s="11">
-        <v>37591</v>
+        <v>45014</v>
       </c>
       <c r="G11" s="11">
-        <v>45014</v>
+        <v>82363</v>
       </c>
       <c r="H11" s="11">
-        <v>82363</v>
+        <v>142448</v>
       </c>
       <c r="I11" s="11">
-        <v>142448</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>213489</v>
+        <v>281857</v>
       </c>
       <c r="F12" s="9">
-        <v>281857</v>
+        <v>369393</v>
       </c>
       <c r="G12" s="9">
-        <v>369393</v>
+        <v>538641</v>
       </c>
       <c r="H12" s="9">
-        <v>538641</v>
+        <v>1084669</v>
       </c>
       <c r="I12" s="9">
-        <v>1084669</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1669182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>518890</v>
+        <v>776534</v>
       </c>
       <c r="F13" s="13">
-        <v>776534</v>
+        <v>953990</v>
       </c>
       <c r="G13" s="13">
-        <v>953990</v>
+        <v>2242407</v>
       </c>
       <c r="H13" s="13">
-        <v>2242407</v>
+        <v>5763393</v>
       </c>
       <c r="I13" s="13">
-        <v>5763393</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9128176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -828,35 +863,35 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>-26414</v>
       </c>
       <c r="I14" s="9">
-        <v>-26414</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-63776</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>518890</v>
+        <v>776534</v>
       </c>
       <c r="F15" s="13">
-        <v>776534</v>
+        <v>953990</v>
       </c>
       <c r="G15" s="13">
-        <v>953990</v>
+        <v>2242407</v>
       </c>
       <c r="H15" s="13">
-        <v>2242407</v>
+        <v>5736979</v>
       </c>
       <c r="I15" s="13">
-        <v>5736979</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9064400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -878,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -900,95 +935,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>518890</v>
+        <v>776534</v>
       </c>
       <c r="F18" s="15">
-        <v>776534</v>
+        <v>953990</v>
       </c>
       <c r="G18" s="15">
-        <v>953990</v>
+        <v>2242407</v>
       </c>
       <c r="H18" s="15">
-        <v>2242407</v>
+        <v>5736979</v>
       </c>
       <c r="I18" s="15">
-        <v>5736979</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9064400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>21032</v>
+        <v>3102</v>
       </c>
       <c r="F19" s="11">
-        <v>3102</v>
+        <v>23123</v>
       </c>
       <c r="G19" s="11">
-        <v>23123</v>
+        <v>81114</v>
       </c>
       <c r="H19" s="11">
-        <v>81114</v>
+        <v>567216</v>
       </c>
       <c r="I19" s="11">
-        <v>567216</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1682113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-3102</v>
+        <v>-23123</v>
       </c>
       <c r="F20" s="9">
-        <v>-23123</v>
+        <v>-81114</v>
       </c>
       <c r="G20" s="9">
-        <v>-81114</v>
+        <v>-567216</v>
       </c>
       <c r="H20" s="9">
-        <v>-567216</v>
+        <v>-1682113</v>
       </c>
       <c r="I20" s="9">
-        <v>-1682113</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3564885</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>536820</v>
+        <v>756513</v>
       </c>
       <c r="F21" s="13">
-        <v>756513</v>
+        <v>895999</v>
       </c>
       <c r="G21" s="13">
-        <v>895999</v>
+        <v>1756305</v>
       </c>
       <c r="H21" s="13">
-        <v>1756305</v>
+        <v>4622082</v>
       </c>
       <c r="I21" s="13">
-        <v>4622082</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7181628</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1001,38 +1036,38 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>2938</v>
       </c>
       <c r="H22" s="9">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>536820</v>
+        <v>756513</v>
       </c>
       <c r="F23" s="13">
-        <v>756513</v>
+        <v>895999</v>
       </c>
       <c r="G23" s="13">
-        <v>895999</v>
+        <v>1759243</v>
       </c>
       <c r="H23" s="13">
-        <v>1759243</v>
+        <v>4622082</v>
       </c>
       <c r="I23" s="13">
-        <v>4622082</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7181628</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1042,7 +1077,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1052,7 +1087,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1062,7 +1097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1094,7 +1129,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1108,17 +1143,17 @@
       <c r="F29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="G29" s="9">
+        <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>8040</v>
       </c>
       <c r="I29" s="9">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1126,8 +1161,8 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1142,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1150,23 +1185,23 @@
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>401</v>
       </c>
       <c r="F31" s="9">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="G31" s="9">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="H31" s="9">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="I31" s="9">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1174,23 +1209,23 @@
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>127</v>
       </c>
       <c r="F32" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G32" s="11">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H32" s="11">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="I32" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1198,45 +1233,45 @@
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>852</v>
       </c>
       <c r="F33" s="9">
-        <v>852</v>
+        <v>520</v>
       </c>
       <c r="G33" s="9">
-        <v>520</v>
+        <v>1317</v>
       </c>
       <c r="H33" s="9">
-        <v>1317</v>
+        <v>194</v>
       </c>
       <c r="I33" s="9">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="F34" s="13">
-        <v>1380</v>
+        <v>1229</v>
       </c>
       <c r="G34" s="13">
-        <v>1229</v>
+        <v>1996</v>
       </c>
       <c r="H34" s="13">
-        <v>1996</v>
+        <v>8672</v>
       </c>
       <c r="I34" s="13">
-        <v>8672</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1246,7 +1281,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1256,7 +1291,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1266,7 +1301,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1298,7 +1333,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1312,17 +1347,17 @@
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>26</v>
+      <c r="G40" s="9">
+        <v>14972</v>
       </c>
       <c r="H40" s="9">
-        <v>14972</v>
+        <v>6136</v>
       </c>
       <c r="I40" s="9">
-        <v>6136</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15035</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
@@ -1330,23 +1365,23 @@
         <v>25</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
+      <c r="E41" s="11">
+        <v>4186</v>
       </c>
       <c r="F41" s="11">
-        <v>4186</v>
+        <v>9634</v>
       </c>
       <c r="G41" s="11">
-        <v>9634</v>
+        <v>8753</v>
       </c>
       <c r="H41" s="11">
-        <v>8753</v>
+        <v>7859</v>
       </c>
       <c r="I41" s="11">
-        <v>7859</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>28</v>
       </c>
@@ -1354,23 +1389,23 @@
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>18244</v>
       </c>
       <c r="F42" s="9">
-        <v>18244</v>
+        <v>14510</v>
       </c>
       <c r="G42" s="9">
-        <v>14510</v>
+        <v>14909</v>
       </c>
       <c r="H42" s="9">
-        <v>14909</v>
+        <v>15949</v>
       </c>
       <c r="I42" s="9">
-        <v>15949</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11611</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
@@ -1378,23 +1413,23 @@
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>8344</v>
       </c>
       <c r="F43" s="11">
-        <v>8344</v>
+        <v>8966</v>
       </c>
       <c r="G43" s="11">
-        <v>8966</v>
+        <v>9054</v>
       </c>
       <c r="H43" s="11">
-        <v>9054</v>
+        <v>8096</v>
       </c>
       <c r="I43" s="11">
-        <v>8096</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
@@ -1402,45 +1437,45 @@
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>15939</v>
       </c>
       <c r="F44" s="9">
-        <v>15939</v>
+        <v>15105</v>
       </c>
       <c r="G44" s="9">
-        <v>15105</v>
+        <v>14963</v>
       </c>
       <c r="H44" s="9">
-        <v>14963</v>
+        <v>15441</v>
       </c>
       <c r="I44" s="9">
-        <v>15441</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>46713</v>
       </c>
       <c r="F45" s="13">
-        <v>46713</v>
+        <v>48215</v>
       </c>
       <c r="G45" s="13">
-        <v>48215</v>
+        <v>62651</v>
       </c>
       <c r="H45" s="13">
-        <v>62651</v>
+        <v>53481</v>
       </c>
       <c r="I45" s="13">
-        <v>53481</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63981</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1450,7 +1485,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1460,7 +1495,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1470,7 +1505,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>32</v>
       </c>
@@ -1492,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1502,7 +1537,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1516,17 +1551,17 @@
       <c r="F51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>26</v>
+      <c r="G51" s="9">
+        <v>6931</v>
       </c>
       <c r="H51" s="9">
-        <v>6931</v>
+        <v>14016</v>
       </c>
       <c r="I51" s="9">
-        <v>14016</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14864</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1534,23 +1569,23 @@
         <v>25</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>4186</v>
       </c>
       <c r="F52" s="11">
-        <v>4186</v>
+        <v>9634</v>
       </c>
       <c r="G52" s="11">
-        <v>9634</v>
+        <v>8753</v>
       </c>
       <c r="H52" s="11">
-        <v>8753</v>
+        <v>7859</v>
       </c>
       <c r="I52" s="11">
-        <v>7859</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
@@ -1558,23 +1593,23 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
+      <c r="E53" s="9">
+        <v>18060</v>
       </c>
       <c r="F53" s="9">
-        <v>18060</v>
+        <v>14553</v>
       </c>
       <c r="G53" s="9">
-        <v>14553</v>
+        <v>15054</v>
       </c>
       <c r="H53" s="9">
-        <v>15054</v>
+        <v>15708</v>
       </c>
       <c r="I53" s="9">
-        <v>15708</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1582,23 +1617,23 @@
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>8346</v>
       </c>
       <c r="F54" s="11">
-        <v>8346</v>
+        <v>8953</v>
       </c>
       <c r="G54" s="11">
-        <v>8953</v>
+        <v>9150</v>
       </c>
       <c r="H54" s="11">
-        <v>9150</v>
+        <v>8048</v>
       </c>
       <c r="I54" s="11">
-        <v>8048</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7619</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -1606,45 +1641,45 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>16200</v>
       </c>
       <c r="F55" s="9">
-        <v>16200</v>
+        <v>14308</v>
       </c>
       <c r="G55" s="9">
-        <v>14308</v>
+        <v>16087</v>
       </c>
       <c r="H55" s="9">
-        <v>16087</v>
+        <v>14746</v>
       </c>
       <c r="I55" s="9">
-        <v>14746</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>46792</v>
       </c>
       <c r="F56" s="13">
-        <v>46792</v>
+        <v>47448</v>
       </c>
       <c r="G56" s="13">
-        <v>47448</v>
+        <v>55975</v>
       </c>
       <c r="H56" s="13">
-        <v>55975</v>
+        <v>60377</v>
       </c>
       <c r="I56" s="13">
-        <v>60377</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1654,7 +1689,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1664,7 +1699,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1674,7 +1709,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1706,7 +1741,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1720,17 +1755,17 @@
       <c r="F62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>26</v>
+      <c r="G62" s="9">
+        <v>8041</v>
       </c>
       <c r="H62" s="9">
-        <v>8041</v>
+        <v>160</v>
       </c>
       <c r="I62" s="9">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
@@ -1738,8 +1773,8 @@
         <v>25</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
+      <c r="E63" s="11">
+        <v>0</v>
       </c>
       <c r="F63" s="11">
         <v>0</v>
@@ -1754,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>28</v>
       </c>
@@ -1762,23 +1797,23 @@
         <v>25</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>585</v>
       </c>
       <c r="F64" s="9">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="G64" s="9">
-        <v>541</v>
+        <v>396</v>
       </c>
       <c r="H64" s="9">
-        <v>396</v>
+        <v>637</v>
       </c>
       <c r="I64" s="9">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>29</v>
       </c>
@@ -1786,23 +1821,23 @@
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>26</v>
+      <c r="E65" s="11">
+        <v>125</v>
       </c>
       <c r="F65" s="11">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G65" s="11">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="H65" s="11">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I65" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>30</v>
       </c>
@@ -1810,45 +1845,45 @@
         <v>25</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>26</v>
+      <c r="E66" s="9">
+        <v>591</v>
       </c>
       <c r="F66" s="9">
-        <v>591</v>
+        <v>1317</v>
       </c>
       <c r="G66" s="9">
-        <v>1317</v>
+        <v>193</v>
       </c>
       <c r="H66" s="9">
-        <v>193</v>
+        <v>889</v>
       </c>
       <c r="I66" s="9">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="F67" s="13">
-        <v>1301</v>
+        <v>1996</v>
       </c>
       <c r="G67" s="13">
-        <v>1996</v>
+        <v>8672</v>
       </c>
       <c r="H67" s="13">
-        <v>8672</v>
+        <v>1776</v>
       </c>
       <c r="I67" s="13">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1858,7 +1893,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1868,7 +1903,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1878,7 +1913,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>34</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1910,7 +1945,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
@@ -1924,17 +1959,17 @@
       <c r="F73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>26</v>
+      <c r="G73" s="9">
+        <v>0</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>893337</v>
       </c>
       <c r="I73" s="9">
-        <v>893337</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17840</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -1942,8 +1977,8 @@
         <v>35</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
@@ -1958,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>28</v>
       </c>
@@ -1966,23 +2001,23 @@
         <v>35</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
+      <c r="E75" s="9">
+        <v>1793</v>
       </c>
       <c r="F75" s="9">
-        <v>1793</v>
+        <v>4137</v>
       </c>
       <c r="G75" s="9">
-        <v>4137</v>
+        <v>1703</v>
       </c>
       <c r="H75" s="9">
-        <v>1703</v>
+        <v>9645</v>
       </c>
       <c r="I75" s="9">
-        <v>9645</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42072</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -1990,23 +2025,23 @@
         <v>35</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
+      <c r="E76" s="11">
+        <v>1596</v>
       </c>
       <c r="F76" s="11">
-        <v>1596</v>
+        <v>1715</v>
       </c>
       <c r="G76" s="11">
-        <v>1715</v>
+        <v>2883</v>
       </c>
       <c r="H76" s="11">
-        <v>2883</v>
+        <v>1566</v>
       </c>
       <c r="I76" s="11">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11885</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -2014,45 +2049,45 @@
         <v>35</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>10358</v>
       </c>
       <c r="F77" s="9">
-        <v>10358</v>
+        <v>9877</v>
       </c>
       <c r="G77" s="9">
-        <v>9877</v>
+        <v>41534</v>
       </c>
       <c r="H77" s="9">
-        <v>41534</v>
+        <v>10296</v>
       </c>
       <c r="I77" s="9">
-        <v>10296</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175750</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>13747</v>
       </c>
       <c r="F78" s="13">
-        <v>13747</v>
+        <v>15729</v>
       </c>
       <c r="G78" s="13">
-        <v>15729</v>
+        <v>46120</v>
       </c>
       <c r="H78" s="13">
-        <v>46120</v>
+        <v>914844</v>
       </c>
       <c r="I78" s="13">
-        <v>914844</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247547</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2062,7 +2097,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2072,7 +2107,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2082,7 +2117,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>36</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2114,7 +2149,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -2128,17 +2163,17 @@
       <c r="F84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>26</v>
+      <c r="G84" s="9">
+        <v>1493688</v>
       </c>
       <c r="H84" s="9">
-        <v>1493688</v>
+        <v>739853</v>
       </c>
       <c r="I84" s="9">
-        <v>739853</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2964620</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2146,23 +2181,23 @@
         <v>35</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>26</v>
+      <c r="E85" s="11">
+        <v>9002</v>
       </c>
       <c r="F85" s="11">
-        <v>9002</v>
+        <v>19170</v>
       </c>
       <c r="G85" s="11">
-        <v>19170</v>
+        <v>20719</v>
       </c>
       <c r="H85" s="11">
-        <v>20719</v>
+        <v>66700</v>
       </c>
       <c r="I85" s="11">
-        <v>66700</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313219</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
@@ -2170,23 +2205,23 @@
         <v>35</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>26</v>
+      <c r="E86" s="9">
+        <v>111551</v>
       </c>
       <c r="F86" s="9">
-        <v>111551</v>
+        <v>75968</v>
       </c>
       <c r="G86" s="9">
-        <v>75968</v>
+        <v>150788</v>
       </c>
       <c r="H86" s="9">
-        <v>150788</v>
+        <v>615039</v>
       </c>
       <c r="I86" s="9">
-        <v>615039</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>420739</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
@@ -2194,23 +2229,23 @@
         <v>35</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>26</v>
+      <c r="E87" s="11">
+        <v>115773</v>
       </c>
       <c r="F87" s="11">
-        <v>115773</v>
+        <v>134246</v>
       </c>
       <c r="G87" s="11">
-        <v>134246</v>
+        <v>216100</v>
       </c>
       <c r="H87" s="11">
-        <v>216100</v>
+        <v>663051</v>
       </c>
       <c r="I87" s="11">
-        <v>663051</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1498111</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
@@ -2218,45 +2253,45 @@
         <v>35</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>26</v>
+      <c r="E88" s="9">
+        <v>222741</v>
       </c>
       <c r="F88" s="9">
-        <v>222741</v>
+        <v>340589</v>
       </c>
       <c r="G88" s="9">
-        <v>340589</v>
+        <v>608832</v>
       </c>
       <c r="H88" s="9">
-        <v>608832</v>
+        <v>1784337</v>
       </c>
       <c r="I88" s="9">
-        <v>1784337</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2191749</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>459067</v>
       </c>
       <c r="F89" s="13">
-        <v>459067</v>
+        <v>569973</v>
       </c>
       <c r="G89" s="13">
-        <v>569973</v>
+        <v>2490127</v>
       </c>
       <c r="H89" s="13">
-        <v>2490127</v>
+        <v>3868980</v>
       </c>
       <c r="I89" s="13">
-        <v>3868980</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7388438</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2266,7 +2301,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2276,7 +2311,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2286,7 +2321,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>37</v>
       </c>
@@ -2308,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2318,7 +2353,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2332,17 +2367,17 @@
       <c r="F95" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>26</v>
+      <c r="G95" s="9">
+        <v>600351</v>
       </c>
       <c r="H95" s="9">
-        <v>600351</v>
+        <v>1615349</v>
       </c>
       <c r="I95" s="9">
-        <v>1615349</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2900036</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2350,23 +2385,23 @@
         <v>35</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>26</v>
+      <c r="E96" s="11">
+        <v>9002</v>
       </c>
       <c r="F96" s="11">
-        <v>9002</v>
+        <v>19170</v>
       </c>
       <c r="G96" s="11">
-        <v>19170</v>
+        <v>20719</v>
       </c>
       <c r="H96" s="11">
-        <v>20719</v>
+        <v>66700</v>
       </c>
       <c r="I96" s="11">
-        <v>66700</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313219</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>28</v>
       </c>
@@ -2374,23 +2409,23 @@
         <v>35</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
+      <c r="E97" s="9">
+        <v>109207</v>
       </c>
       <c r="F97" s="9">
-        <v>109207</v>
+        <v>78402</v>
       </c>
       <c r="G97" s="9">
-        <v>78402</v>
+        <v>142845</v>
       </c>
       <c r="H97" s="9">
-        <v>142845</v>
+        <v>582613</v>
       </c>
       <c r="I97" s="9">
-        <v>582613</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>434249</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
@@ -2398,23 +2433,23 @@
         <v>35</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>26</v>
+      <c r="E98" s="11">
+        <v>115656</v>
       </c>
       <c r="F98" s="11">
-        <v>115656</v>
+        <v>133079</v>
       </c>
       <c r="G98" s="11">
-        <v>133079</v>
+        <v>217417</v>
       </c>
       <c r="H98" s="11">
-        <v>217417</v>
+        <v>652731</v>
       </c>
       <c r="I98" s="11">
-        <v>652731</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1491307</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -2422,45 +2457,45 @@
         <v>35</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>223221</v>
       </c>
       <c r="F99" s="9">
-        <v>223221</v>
+        <v>308932</v>
       </c>
       <c r="G99" s="9">
-        <v>308932</v>
+        <v>640071</v>
       </c>
       <c r="H99" s="9">
-        <v>640071</v>
+        <v>1618883</v>
       </c>
       <c r="I99" s="9">
-        <v>1618883</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2115894</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>457086</v>
       </c>
       <c r="F100" s="13">
-        <v>457086</v>
+        <v>539583</v>
       </c>
       <c r="G100" s="13">
-        <v>539583</v>
+        <v>1621403</v>
       </c>
       <c r="H100" s="13">
-        <v>1621403</v>
+        <v>4536276</v>
       </c>
       <c r="I100" s="13">
-        <v>4536276</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7254705</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2470,7 +2505,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2480,7 +2515,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2490,7 +2525,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>38</v>
       </c>
@@ -2512,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2522,7 +2557,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
@@ -2536,17 +2571,17 @@
       <c r="F106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>26</v>
+      <c r="G106" s="9">
+        <v>893337</v>
       </c>
       <c r="H106" s="9">
-        <v>893337</v>
+        <v>17841</v>
       </c>
       <c r="I106" s="9">
-        <v>17841</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82424</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2554,8 +2589,8 @@
         <v>35</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
+      <c r="E107" s="11">
+        <v>0</v>
       </c>
       <c r="F107" s="11">
         <v>0</v>
@@ -2570,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>28</v>
       </c>
@@ -2578,23 +2613,23 @@
         <v>35</v>
       </c>
       <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>26</v>
+      <c r="E108" s="9">
+        <v>4137</v>
       </c>
       <c r="F108" s="9">
-        <v>4137</v>
+        <v>1703</v>
       </c>
       <c r="G108" s="9">
-        <v>1703</v>
+        <v>9646</v>
       </c>
       <c r="H108" s="9">
-        <v>9646</v>
+        <v>42071</v>
       </c>
       <c r="I108" s="9">
-        <v>42071</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28562</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -2602,23 +2637,23 @@
         <v>35</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>26</v>
+      <c r="E109" s="11">
+        <v>1713</v>
       </c>
       <c r="F109" s="11">
-        <v>1713</v>
+        <v>2882</v>
       </c>
       <c r="G109" s="11">
-        <v>2882</v>
+        <v>1566</v>
       </c>
       <c r="H109" s="11">
-        <v>1566</v>
+        <v>11886</v>
       </c>
       <c r="I109" s="11">
-        <v>11886</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18689</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>30</v>
       </c>
@@ -2626,45 +2661,45 @@
         <v>35</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>26</v>
+      <c r="E110" s="9">
+        <v>9878</v>
       </c>
       <c r="F110" s="9">
-        <v>9878</v>
+        <v>41534</v>
       </c>
       <c r="G110" s="9">
-        <v>41534</v>
+        <v>10295</v>
       </c>
       <c r="H110" s="9">
-        <v>10295</v>
+        <v>175750</v>
       </c>
       <c r="I110" s="9">
-        <v>175750</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251605</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>0</v>
+        <v>15728</v>
       </c>
       <c r="F111" s="13">
-        <v>15728</v>
+        <v>46119</v>
       </c>
       <c r="G111" s="13">
-        <v>46119</v>
+        <v>914844</v>
       </c>
       <c r="H111" s="13">
-        <v>914844</v>
+        <v>247548</v>
       </c>
       <c r="I111" s="13">
-        <v>247548</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>381280</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2674,7 +2709,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2684,7 +2719,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2694,7 +2729,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>39</v>
       </c>
@@ -2716,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2726,7 +2761,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2743,14 +2778,14 @@
       <c r="G117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
+      <c r="H117" s="9">
+        <v>111111567</v>
       </c>
       <c r="I117" s="9">
-        <v>111111567</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111500000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>28</v>
       </c>
@@ -2758,23 +2793,23 @@
         <v>40</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
+      <c r="E118" s="11">
+        <v>4471322</v>
       </c>
       <c r="F118" s="11">
-        <v>4471322</v>
+        <v>7083904</v>
       </c>
       <c r="G118" s="11">
-        <v>7083904</v>
+        <v>3147874</v>
       </c>
       <c r="H118" s="11">
-        <v>3147874</v>
+        <v>24356061</v>
       </c>
       <c r="I118" s="11">
-        <v>24356061</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66047096</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -2782,23 +2817,23 @@
         <v>40</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
+      <c r="E119" s="9">
+        <v>12566929</v>
       </c>
       <c r="F119" s="9">
-        <v>12566929</v>
+        <v>13720000</v>
       </c>
       <c r="G119" s="9">
-        <v>13720000</v>
+        <v>20891304</v>
       </c>
       <c r="H119" s="9">
-        <v>20891304</v>
+        <v>37285714</v>
       </c>
       <c r="I119" s="9">
-        <v>37285714</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132055556</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>30</v>
       </c>
@@ -2806,23 +2841,23 @@
         <v>40</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
+      <c r="E120" s="11">
+        <v>12157277</v>
       </c>
       <c r="F120" s="11">
-        <v>12157277</v>
+        <v>18994231</v>
       </c>
       <c r="G120" s="11">
-        <v>18994231</v>
+        <v>31536826</v>
       </c>
       <c r="H120" s="11">
-        <v>31536826</v>
+        <v>53072165</v>
       </c>
       <c r="I120" s="11">
-        <v>53072165</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197694038</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2832,7 +2867,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2842,7 +2877,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2852,7 +2887,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>41</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2884,7 +2919,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
@@ -2898,17 +2933,17 @@
       <c r="F126" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="9" t="s">
-        <v>26</v>
+      <c r="G126" s="9">
+        <v>99765429</v>
       </c>
       <c r="H126" s="9">
-        <v>99765429</v>
+        <v>120575782</v>
       </c>
       <c r="I126" s="9">
-        <v>120575782</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197181244</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
@@ -2916,23 +2951,23 @@
         <v>40</v>
       </c>
       <c r="D127" s="11"/>
-      <c r="E127" s="11" t="s">
-        <v>26</v>
+      <c r="E127" s="11">
+        <v>2150502</v>
       </c>
       <c r="F127" s="11">
-        <v>2150502</v>
+        <v>1989828</v>
       </c>
       <c r="G127" s="11">
-        <v>1989828</v>
+        <v>2367074</v>
       </c>
       <c r="H127" s="11">
-        <v>2367074</v>
+        <v>8487085</v>
       </c>
       <c r="I127" s="11">
-        <v>8487085</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22049912</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>28</v>
       </c>
@@ -2940,23 +2975,23 @@
         <v>40</v>
       </c>
       <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
-        <v>26</v>
+      <c r="E128" s="9">
+        <v>6114394</v>
       </c>
       <c r="F128" s="9">
-        <v>6114394</v>
+        <v>5235562</v>
       </c>
       <c r="G128" s="9">
-        <v>5235562</v>
+        <v>10113891</v>
       </c>
       <c r="H128" s="9">
-        <v>10113891</v>
+        <v>38562857</v>
       </c>
       <c r="I128" s="9">
-        <v>38562857</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36236242</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>29</v>
       </c>
@@ -2964,23 +2999,23 @@
         <v>40</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11" t="s">
-        <v>26</v>
+      <c r="E129" s="11">
+        <v>13875000</v>
       </c>
       <c r="F129" s="11">
-        <v>13875000</v>
+        <v>14972786</v>
       </c>
       <c r="G129" s="11">
-        <v>14972786</v>
+        <v>23867904</v>
       </c>
       <c r="H129" s="11">
-        <v>23867904</v>
+        <v>81898592</v>
       </c>
       <c r="I129" s="11">
-        <v>81898592</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195933952</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>30</v>
       </c>
@@ -2988,23 +3023,23 @@
         <v>40</v>
       </c>
       <c r="D130" s="9"/>
-      <c r="E130" s="9" t="s">
-        <v>26</v>
+      <c r="E130" s="9">
+        <v>13974591</v>
       </c>
       <c r="F130" s="9">
-        <v>13974591</v>
+        <v>22548097</v>
       </c>
       <c r="G130" s="9">
-        <v>22548097</v>
+        <v>40689167</v>
       </c>
       <c r="H130" s="9">
-        <v>40689167</v>
+        <v>115558384</v>
       </c>
       <c r="I130" s="9">
-        <v>115558384</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141549277</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3014,7 +3049,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3024,7 +3059,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3034,7 +3069,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>42</v>
       </c>
@@ -3056,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3066,7 +3101,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>24</v>
       </c>
@@ -3080,17 +3115,17 @@
       <c r="F136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>26</v>
+      <c r="G136" s="9">
+        <v>86618237</v>
       </c>
       <c r="H136" s="9">
-        <v>86618237</v>
+        <v>115250357</v>
       </c>
       <c r="I136" s="9">
-        <v>115250357</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195104682</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>27</v>
       </c>
@@ -3098,23 +3133,23 @@
         <v>40</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>26</v>
+      <c r="E137" s="11">
+        <v>2150502</v>
       </c>
       <c r="F137" s="11">
-        <v>2150502</v>
+        <v>1989828</v>
       </c>
       <c r="G137" s="11">
-        <v>1989828</v>
+        <v>2367074</v>
       </c>
       <c r="H137" s="11">
-        <v>2367074</v>
+        <v>8487085</v>
       </c>
       <c r="I137" s="11">
-        <v>8487085</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22049912</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>28</v>
       </c>
@@ -3122,23 +3157,23 @@
         <v>40</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>26</v>
+      <c r="E138" s="9">
+        <v>6046899</v>
       </c>
       <c r="F138" s="9">
-        <v>6046899</v>
+        <v>5387343</v>
       </c>
       <c r="G138" s="9">
-        <v>5387343</v>
+        <v>9488840</v>
       </c>
       <c r="H138" s="9">
-        <v>9488840</v>
+        <v>37090209</v>
       </c>
       <c r="I138" s="9">
-        <v>37090209</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38148906</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>29</v>
       </c>
@@ -3146,23 +3181,23 @@
         <v>40</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>26</v>
+      <c r="E139" s="11">
+        <v>13857656</v>
       </c>
       <c r="F139" s="11">
-        <v>13857656</v>
+        <v>14864180</v>
       </c>
       <c r="G139" s="11">
-        <v>14864180</v>
+        <v>23761421</v>
       </c>
       <c r="H139" s="11">
-        <v>23761421</v>
+        <v>81104747</v>
       </c>
       <c r="I139" s="11">
-        <v>81104747</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195735267</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>30</v>
       </c>
@@ -3170,23 +3205,23 @@
         <v>40</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>26</v>
+      <c r="E140" s="9">
+        <v>13779074</v>
       </c>
       <c r="F140" s="9">
-        <v>13779074</v>
+        <v>21591557</v>
       </c>
       <c r="G140" s="9">
-        <v>21591557</v>
+        <v>39788090</v>
       </c>
       <c r="H140" s="9">
-        <v>39788090</v>
+        <v>109784552</v>
       </c>
       <c r="I140" s="9">
-        <v>109784552</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>151851155</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3196,7 +3231,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3206,7 +3241,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3216,7 +3251,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>43</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3248,7 +3283,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>24</v>
       </c>
@@ -3262,17 +3297,17 @@
       <c r="F146" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>26</v>
+      <c r="G146" s="9">
+        <v>111097749</v>
       </c>
       <c r="H146" s="9">
-        <v>111097749</v>
+        <v>111506250</v>
       </c>
       <c r="I146" s="9">
-        <v>111506250</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>249015106</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>28</v>
       </c>
@@ -3280,23 +3315,23 @@
         <v>25</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
+      <c r="E147" s="11">
+        <v>7071795</v>
       </c>
       <c r="F147" s="11">
-        <v>7071795</v>
+        <v>3147874</v>
       </c>
       <c r="G147" s="11">
-        <v>3147874</v>
+        <v>24358586</v>
       </c>
       <c r="H147" s="11">
-        <v>24358586</v>
+        <v>66045526</v>
       </c>
       <c r="I147" s="11">
-        <v>66045526</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33019653</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>29</v>
       </c>
@@ -3304,23 +3339,23 @@
         <v>25</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
-        <v>26</v>
+      <c r="E148" s="9">
+        <v>13704000</v>
       </c>
       <c r="F148" s="9">
-        <v>13704000</v>
+        <v>20884058</v>
       </c>
       <c r="G148" s="9">
-        <v>20884058</v>
+        <v>37285714</v>
       </c>
       <c r="H148" s="9">
-        <v>37285714</v>
+        <v>132066667</v>
       </c>
       <c r="I148" s="9">
-        <v>132066667</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>159735043</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>30</v>
       </c>
@@ -3328,23 +3363,23 @@
         <v>25</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11" t="s">
-        <v>26</v>
+      <c r="E149" s="11">
+        <v>16714044</v>
       </c>
       <c r="F149" s="11">
-        <v>16714044</v>
+        <v>31536826</v>
       </c>
       <c r="G149" s="11">
-        <v>31536826</v>
+        <v>53341969</v>
       </c>
       <c r="H149" s="11">
-        <v>53341969</v>
+        <v>197694038</v>
       </c>
       <c r="I149" s="11">
-        <v>197694038</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103159082</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3354,7 +3389,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3364,7 +3399,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3374,7 +3409,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>44</v>
       </c>
@@ -3396,7 +3431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3406,7 +3441,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>45</v>
       </c>
@@ -3428,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>46</v>
       </c>
@@ -3450,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>47</v>
       </c>
@@ -3472,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>48</v>
       </c>
@@ -3494,95 +3529,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>2968</v>
+        <v>5495</v>
       </c>
       <c r="F159" s="9">
-        <v>5495</v>
+        <v>72295</v>
       </c>
       <c r="G159" s="9">
-        <v>72295</v>
+        <v>132990</v>
       </c>
       <c r="H159" s="9">
-        <v>132990</v>
+        <v>242458</v>
       </c>
       <c r="I159" s="9">
-        <v>242458</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>216183</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>17670</v>
+        <v>20502</v>
       </c>
       <c r="F160" s="11">
-        <v>20502</v>
+        <v>26559</v>
       </c>
       <c r="G160" s="11">
-        <v>26559</v>
+        <v>34696</v>
       </c>
       <c r="H160" s="11">
-        <v>34696</v>
+        <v>163095</v>
       </c>
       <c r="I160" s="11">
-        <v>163095</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179820</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>20832</v>
+        <v>57003</v>
       </c>
       <c r="F161" s="9">
-        <v>57003</v>
+        <v>43649</v>
       </c>
       <c r="G161" s="9">
-        <v>43649</v>
+        <v>52392</v>
       </c>
       <c r="H161" s="9">
-        <v>52392</v>
+        <v>67075</v>
       </c>
       <c r="I161" s="9">
-        <v>67075</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61944</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>63450</v>
+        <v>90216</v>
       </c>
       <c r="F162" s="11">
-        <v>90216</v>
+        <v>144786</v>
       </c>
       <c r="G162" s="11">
-        <v>144786</v>
+        <v>188024</v>
       </c>
       <c r="H162" s="11">
-        <v>188024</v>
+        <v>268629</v>
       </c>
       <c r="I162" s="11">
-        <v>268629</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313267</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>53</v>
       </c>
@@ -3604,48 +3639,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>108569</v>
+        <v>108641</v>
       </c>
       <c r="F164" s="11">
-        <v>108641</v>
+        <v>82104</v>
       </c>
       <c r="G164" s="11">
-        <v>82104</v>
+        <v>130539</v>
       </c>
       <c r="H164" s="11">
-        <v>130539</v>
+        <v>343412</v>
       </c>
       <c r="I164" s="11">
-        <v>343412</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>897968</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15">
-        <v>213489</v>
+        <v>281857</v>
       </c>
       <c r="F165" s="15">
-        <v>281857</v>
+        <v>369393</v>
       </c>
       <c r="G165" s="15">
-        <v>369393</v>
+        <v>538641</v>
       </c>
       <c r="H165" s="15">
-        <v>538641</v>
+        <v>1084669</v>
       </c>
       <c r="I165" s="15">
-        <v>1084669</v>
+        <v>1669182</v>
       </c>
     </row>
   </sheetData>
